--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_22_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154120.1340406745</v>
+        <v>145073.284628089</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12538307.97624288</v>
+        <v>12538307.97624287</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3265318.970030183</v>
+        <v>3265318.970030184</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -782,28 +782,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.504190801070983</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.04668504368034</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="U3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>18.21830727030011</v>
+        <v>14.54249424260933</v>
       </c>
       <c r="W3" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5891238419305855</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>19.3963923587197</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.595923003046348</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>20.70735517432628</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.775148425455182</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.895205188827156</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.183833028195911</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>5.971114873554876</v>
       </c>
       <c r="G8" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>21.01808531142683</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190938</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.01919626068104</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.86249467691513</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11.0081329818507</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.00995232957614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.479784596074263</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.289551455639597</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.190233140434652</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>125.5659701182344</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>198.6607103741074</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.14829163864474</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T11" t="n">
         <v>212.5354044354234</v>
@@ -1429,13 +1429,13 @@
         <v>255.6584024877743</v>
       </c>
       <c r="V11" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="X11" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>107.7989559016405</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>103.6549143897921</v>
@@ -1463,7 +1463,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.8708120119527</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>65.21374599491358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.62559753054263</v>
+        <v>116.3328253668317</v>
       </c>
       <c r="H13" t="n">
-        <v>136.7271384939178</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>79.7239485572547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.08995158650412</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.3959181317836</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H14" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>30.95467124977541</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.5354044354234</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>27.70030376292268</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="W14" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.6549143897921</v>
+        <v>11.02752479154742</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>182.8708120119527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>65.21374599491358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>138.2959597602405</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8743781740937</v>
+        <v>28.48735883011723</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9610376319913</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>136.7271384939178</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3480569759686</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>57.67204596644383</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="G17" t="n">
-        <v>196.7142617568791</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T17" t="n">
-        <v>212.5354044354234</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6584024877743</v>
       </c>
       <c r="V17" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>78.69576467958895</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.54606290860439</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.47844324997878</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>182.8708120119527</v>
@@ -1988,10 +1988,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>38.22954321925494</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>238.199769595833</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>204.3627847041698</v>
+        <v>163.6682015819523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>125.5659701182344</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>27.70030376292273</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.14829163864474</v>
+        <v>71.14829163864468</v>
       </c>
       <c r="T20" t="n">
         <v>212.5354044354234</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6584024877743</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,13 +2162,13 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29.88178815319786</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U21" t="n">
-        <v>175.5886269078727</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2225,7 +2225,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>138.2959597602405</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>163.6682015819514</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>136.7271384939178</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>26.9410630880345</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>322.2068453738138</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>271.5073585269046</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>189.670378409513</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>182.8401460722872</v>
       </c>
       <c r="V24" t="n">
-        <v>202.9234074721267</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W24" t="n">
         <v>194.556163395115</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>132.7856709191597</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.12301297744206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>102.7135475519859</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>158.299114597552</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
         <v>41.04430296570798</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.77409969606283</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10.31356074210778</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>211.7677375096292</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>327.3184858451933</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E30" t="n">
-        <v>103.6549143897924</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>91.89163974602977</v>
+        <v>91.89163974602971</v>
       </c>
       <c r="H30" t="n">
         <v>41.04430296570798</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>47.07332364125804</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>101.492284932333</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.3683970781324</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3037,16 +3037,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H32" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>272.5525442136064</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>169.7775958326054</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>157.8170271388154</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.66467917211007</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,13 +3274,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>271.5073585269046</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>51.46208568167421</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>104.3548035765108</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.50834088925705</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -3505,13 +3505,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>65.48714347625013</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>335.5346762711127</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570794</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>81.76318490049276</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.2827578611722</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>84.93775028979523</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.012519220714</v>
@@ -3793,10 +3793,10 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>159.4212717016719</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3805,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W42" t="n">
-        <v>194.5561633951149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
         <v>161.8425727710037</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.21881099962014</v>
+        <v>138.3207746032094</v>
       </c>
       <c r="G43" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>130.7873852000056</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
         <v>271.5073585269046</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.7218148893222</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>60.31854682367564</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H45" t="n">
         <v>41.04430296570798</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>95.89525223782265</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>271.2612705660952</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.87322908120045</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="C2" t="n">
-        <v>72.87322908120045</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D2" t="n">
-        <v>72.87322908120045</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E2" t="n">
-        <v>72.87322908120045</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F2" t="n">
-        <v>56.66445630980617</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G2" t="n">
-        <v>38.26212573374545</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85979515768473</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I2" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J2" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K2" t="n">
-        <v>5.21909947599228</v>
+        <v>5.219099475992257</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088182</v>
+        <v>15.88227649088179</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886392</v>
+        <v>32.89339907886386</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646103</v>
+        <v>50.92952327646097</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927301</v>
+        <v>65.79354395927295</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="R2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="T2" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="U2" t="n">
-        <v>72.87322908120045</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="V2" t="n">
-        <v>72.87322908120045</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="W2" t="n">
-        <v>72.87322908120045</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="X2" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.87322908120045</v>
+        <v>38.26212573374541</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K3" t="n">
-        <v>1.457464581624009</v>
+        <v>5.886021080118643</v>
       </c>
       <c r="L3" t="n">
-        <v>10.63528474396712</v>
+        <v>19.36817474787377</v>
       </c>
       <c r="M3" t="n">
-        <v>28.67140894156423</v>
+        <v>37.40429894547086</v>
       </c>
       <c r="N3" t="n">
-        <v>46.70753313916134</v>
+        <v>55.44042314306796</v>
       </c>
       <c r="O3" t="n">
-        <v>62.96599962173947</v>
+        <v>71.69888962564607</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120045</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.87322908120045</v>
+        <v>71.35384443365393</v>
       </c>
       <c r="R3" t="n">
-        <v>72.87322908120045</v>
+        <v>71.35384443365393</v>
       </c>
       <c r="S3" t="n">
-        <v>56.66445630980617</v>
+        <v>52.95151385759323</v>
       </c>
       <c r="T3" t="n">
-        <v>56.66445630980617</v>
+        <v>34.54918328153252</v>
       </c>
       <c r="U3" t="n">
-        <v>38.26212573374545</v>
+        <v>34.54918328153252</v>
       </c>
       <c r="V3" t="n">
-        <v>19.85979515768473</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="W3" t="n">
-        <v>1.457464581624009</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="X3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="C4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="D4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="E4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="F4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457464581624009</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432685</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="O4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="P4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="R4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="S4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="T4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="U4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="V4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="W4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="X4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.457464581624009</v>
+        <v>2.05253916943268</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.3751466509546</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3751466509546</v>
+        <v>50.5391851378298</v>
       </c>
       <c r="D5" t="n">
-        <v>49.3751466509546</v>
+        <v>50.5391851378298</v>
       </c>
       <c r="E5" t="n">
-        <v>25.62796184383907</v>
+        <v>26.79200033071428</v>
       </c>
       <c r="F5" t="n">
-        <v>1.880777036723549</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="G5" t="n">
-        <v>1.880777036723549</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="H5" t="n">
-        <v>1.880777036723549</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="I5" t="n">
-        <v>1.880777036723549</v>
+        <v>3.044815523598746</v>
       </c>
       <c r="J5" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K5" t="n">
-        <v>8.415911685442895</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L5" t="n">
-        <v>22.51986039522946</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M5" t="n">
-        <v>43.35950445951393</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N5" t="n">
-        <v>65.28609961349596</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O5" t="n">
-        <v>83.82378169965433</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P5" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>94.03885183617747</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="R5" t="n">
-        <v>79.78487994599573</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="S5" t="n">
-        <v>79.78487994599573</v>
+        <v>93.87868545880362</v>
       </c>
       <c r="T5" t="n">
-        <v>79.78487994599573</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="U5" t="n">
-        <v>79.78487994599573</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="V5" t="n">
-        <v>73.12233145807012</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="W5" t="n">
-        <v>49.3751466509546</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="X5" t="n">
-        <v>49.3751466509546</v>
+        <v>74.28636994494533</v>
       </c>
       <c r="Y5" t="n">
-        <v>49.3751466509546</v>
+        <v>74.28636994494533</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.57962849585839</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="C6" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="D6" t="n">
-        <v>39.57962849585839</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="E6" t="n">
-        <v>39.57962849585839</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F6" t="n">
-        <v>39.57962849585839</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G6" t="n">
-        <v>39.57962849585839</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H6" t="n">
-        <v>15.83244368874287</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I6" t="n">
-        <v>5.694058274557067</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J6" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K6" t="n">
-        <v>8.193129398185476</v>
+        <v>8.19312939818548</v>
       </c>
       <c r="L6" t="n">
-        <v>24.20827907854879</v>
+        <v>24.2082790785488</v>
       </c>
       <c r="M6" t="n">
-        <v>46.04269444771656</v>
+        <v>46.04269444771658</v>
       </c>
       <c r="N6" t="n">
-        <v>62.86984279257507</v>
+        <v>62.86984279257508</v>
       </c>
       <c r="O6" t="n">
-        <v>81.90393668038411</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S6" t="n">
-        <v>87.07399811008943</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T6" t="n">
-        <v>63.32681330297391</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U6" t="n">
-        <v>63.32681330297391</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V6" t="n">
-        <v>39.57962849585839</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W6" t="n">
-        <v>39.57962849585839</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="X6" t="n">
-        <v>39.57962849585839</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.57962849585839</v>
+        <v>94.0388518361775</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="C7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="D7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="E7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="F7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="G7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="H7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L7" t="n">
-        <v>2.17030174587483</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M7" t="n">
-        <v>3.005035947119194</v>
+        <v>3.005035947119205</v>
       </c>
       <c r="N7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="W7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="X7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.24291875429661</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="C8" t="n">
-        <v>47.24291875429661</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="D8" t="n">
-        <v>47.24291875429661</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="E8" t="n">
-        <v>47.24291875429661</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="F8" t="n">
-        <v>47.24291875429661</v>
+        <v>2.947155308689513</v>
       </c>
       <c r="G8" t="n">
-        <v>23.13938877761466</v>
+        <v>2.947155308689513</v>
       </c>
       <c r="H8" t="n">
-        <v>1.90899957415321</v>
+        <v>2.947155308689513</v>
       </c>
       <c r="I8" t="n">
-        <v>1.90899957415321</v>
+        <v>2.947155308689513</v>
       </c>
       <c r="J8" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172369</v>
+        <v>8.629045391172397</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619887</v>
+        <v>22.96239275619889</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482659</v>
+        <v>44.05728702482662</v>
       </c>
       <c r="N8" t="n">
-        <v>66.243262598314</v>
+        <v>66.24326259831406</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944865</v>
+        <v>85.02587025944867</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766052</v>
+        <v>81.28917440394233</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766052</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766052</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766052</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="V8" t="n">
-        <v>71.34644873097857</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="W8" t="n">
-        <v>71.34644873097857</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="X8" t="n">
-        <v>47.24291875429661</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.24291875429661</v>
+        <v>33.08211445057842</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="C9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="D9" t="n">
-        <v>71.34644873097857</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="E9" t="n">
-        <v>47.24291875429661</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="F9" t="n">
-        <v>23.13938877761466</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="G9" t="n">
-        <v>12.02006253332103</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H9" t="n">
-        <v>12.02006253332103</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K9" t="n">
-        <v>8.34694592325231</v>
+        <v>8.346945923252314</v>
       </c>
       <c r="L9" t="n">
-        <v>24.53097221925455</v>
+        <v>24.53097221925456</v>
       </c>
       <c r="M9" t="n">
-        <v>46.56245863347759</v>
+        <v>46.5624586334776</v>
       </c>
       <c r="N9" t="n">
-        <v>63.94739528045541</v>
+        <v>63.84811268230261</v>
       </c>
       <c r="O9" t="n">
-        <v>83.16654218853643</v>
+        <v>83.06725959038364</v>
       </c>
       <c r="P9" t="n">
-        <v>95.44997870766052</v>
+        <v>95.35069610950774</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766052</v>
+        <v>71.34644873097859</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766052</v>
+        <v>47.24291875429664</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="V9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="W9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="X9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
       <c r="Y9" t="n">
-        <v>95.44997870766052</v>
+        <v>26.01252955083517</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="C10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="D10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="E10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="F10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="G10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="H10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757752</v>
+        <v>2.29546818075776</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329168</v>
+        <v>3.232416129329179</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581745</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="O10" t="n">
-        <v>4.12135628166296</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="P10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="R10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="S10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="T10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="U10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="V10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="W10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="X10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.28192550744691</v>
+        <v>512.211257791611</v>
       </c>
       <c r="C11" t="n">
-        <v>28.28192550744691</v>
+        <v>512.211257791611</v>
       </c>
       <c r="D11" t="n">
-        <v>28.28192550744691</v>
+        <v>512.211257791611</v>
       </c>
       <c r="E11" t="n">
-        <v>28.28192550744691</v>
+        <v>512.211257791611</v>
       </c>
       <c r="F11" t="n">
-        <v>28.28192550744691</v>
+        <v>311.543873575341</v>
       </c>
       <c r="G11" t="n">
-        <v>28.28192550744691</v>
+        <v>311.543873575341</v>
       </c>
       <c r="H11" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I11" t="n">
-        <v>47.97023148689603</v>
+        <v>47.97023148689614</v>
       </c>
       <c r="J11" t="n">
-        <v>137.4855014315479</v>
+        <v>137.4855014315481</v>
       </c>
       <c r="K11" t="n">
-        <v>279.8906958536297</v>
+        <v>279.8906958536299</v>
       </c>
       <c r="L11" t="n">
-        <v>462.5534681648032</v>
+        <v>462.5534681648037</v>
       </c>
       <c r="M11" t="n">
-        <v>670.9472812939104</v>
+        <v>670.9472812939111</v>
       </c>
       <c r="N11" t="n">
-        <v>883.4628680500307</v>
+        <v>883.4628680500318</v>
       </c>
       <c r="O11" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P11" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q11" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461808</v>
       </c>
       <c r="R11" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372348</v>
       </c>
       <c r="S11" t="n">
-        <v>1342.229314121189</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.547087418741</v>
+        <v>1127.547087418744</v>
       </c>
       <c r="U11" t="n">
-        <v>869.30627682503</v>
+        <v>869.3062768250322</v>
       </c>
       <c r="V11" t="n">
-        <v>512.2112577916093</v>
+        <v>869.3062768250322</v>
       </c>
       <c r="W11" t="n">
-        <v>512.2112577916093</v>
+        <v>512.211257791611</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1162387581888</v>
+        <v>512.211257791611</v>
       </c>
       <c r="Y11" t="n">
-        <v>155.1162387581888</v>
+        <v>512.211257791611</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.2662202349222</v>
+        <v>344.1355930341008</v>
       </c>
       <c r="C12" t="n">
-        <v>423.760316752427</v>
+        <v>226.6296895516056</v>
       </c>
       <c r="D12" t="n">
-        <v>319.9203582677121</v>
+        <v>226.6296895516056</v>
       </c>
       <c r="E12" t="n">
-        <v>215.2184245406493</v>
+        <v>121.9277558245428</v>
       </c>
       <c r="F12" t="n">
-        <v>121.5725942235535</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G12" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H12" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I12" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613903</v>
       </c>
       <c r="J12" t="n">
-        <v>88.27870598367117</v>
+        <v>88.27870598367133</v>
       </c>
       <c r="K12" t="n">
-        <v>186.8757092093129</v>
+        <v>186.8757092093132</v>
       </c>
       <c r="L12" t="n">
-        <v>326.9789606098386</v>
+        <v>326.9789606098391</v>
       </c>
       <c r="M12" t="n">
-        <v>493.618337828795</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N12" t="n">
-        <v>667.0095683106036</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0179527551978</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P12" t="n">
-        <v>943.2842237880225</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q12" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R12" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S12" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T12" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="U12" t="n">
-        <v>1039.235935236963</v>
+        <v>854.5179433056987</v>
       </c>
       <c r="V12" t="n">
-        <v>1039.235935236963</v>
+        <v>649.5448044449649</v>
       </c>
       <c r="W12" t="n">
-        <v>973.3634645350297</v>
+        <v>453.0234272781821</v>
       </c>
       <c r="X12" t="n">
-        <v>809.8861183016926</v>
+        <v>453.0234272781821</v>
       </c>
       <c r="Y12" t="n">
-        <v>670.193229654985</v>
+        <v>453.0234272781821</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="C13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="D13" t="n">
-        <v>298.0563543778663</v>
+        <v>311.9980357655345</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0563543778663</v>
+        <v>145.7898299183881</v>
       </c>
       <c r="F13" t="n">
-        <v>298.0563543778663</v>
+        <v>145.7898299183881</v>
       </c>
       <c r="G13" t="n">
-        <v>246.919387175298</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H13" t="n">
-        <v>108.8111664743709</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I13" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J13" t="n">
-        <v>52.18246991706594</v>
+        <v>52.18246991706604</v>
       </c>
       <c r="K13" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L13" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620778</v>
       </c>
       <c r="M13" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N13" t="n">
-        <v>327.1503147453034</v>
+        <v>327.150314745304</v>
       </c>
       <c r="O13" t="n">
-        <v>393.5037832208842</v>
+        <v>393.5037832208849</v>
       </c>
       <c r="P13" t="n">
-        <v>447.1830681082848</v>
+        <v>447.1830681082856</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="R13" t="n">
-        <v>457.0421302685568</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="S13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="T13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="U13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="V13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="W13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="X13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="Y13" t="n">
-        <v>298.0563543778663</v>
+        <v>475.3148086387638</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1025.733911642182</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="C14" t="n">
-        <v>1025.733911642182</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="D14" t="n">
-        <v>1025.733911642182</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="E14" t="n">
-        <v>1025.733911642182</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="F14" t="n">
-        <v>668.6388926087616</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="G14" t="n">
-        <v>311.543873575341</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H14" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I14" t="n">
-        <v>47.97023148689573</v>
+        <v>47.97023148689614</v>
       </c>
       <c r="J14" t="n">
-        <v>137.4855014315476</v>
+        <v>137.4855014315481</v>
       </c>
       <c r="K14" t="n">
-        <v>279.8906958536295</v>
+        <v>279.8906958536302</v>
       </c>
       <c r="L14" t="n">
-        <v>462.553468164803</v>
+        <v>462.5534681648037</v>
       </c>
       <c r="M14" t="n">
-        <v>670.9472812939101</v>
+        <v>670.9472812939113</v>
       </c>
       <c r="N14" t="n">
-        <v>883.4628680500305</v>
+        <v>883.4628680500319</v>
       </c>
       <c r="O14" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P14" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q14" t="n">
-        <v>1360.970712461806</v>
+        <v>1360.970712461808</v>
       </c>
       <c r="R14" t="n">
-        <v>1414.096275372346</v>
+        <v>1414.096275372348</v>
       </c>
       <c r="S14" t="n">
-        <v>1382.828930675603</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T14" t="n">
-        <v>1382.828930675603</v>
+        <v>1127.547087418744</v>
       </c>
       <c r="U14" t="n">
-        <v>1382.828930675603</v>
+        <v>1099.566982607711</v>
       </c>
       <c r="V14" t="n">
-        <v>1382.828930675603</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="W14" t="n">
-        <v>1025.733911642182</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="X14" t="n">
-        <v>1025.733911642182</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="Y14" t="n">
-        <v>1025.733911642182</v>
+        <v>385.3769445408681</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>541.2662202349222</v>
+        <v>250.572573237894</v>
       </c>
       <c r="C15" t="n">
-        <v>423.760316752427</v>
+        <v>133.0666697553988</v>
       </c>
       <c r="D15" t="n">
-        <v>319.9203582677121</v>
+        <v>133.0666697553988</v>
       </c>
       <c r="E15" t="n">
-        <v>215.2184245406493</v>
+        <v>121.9277558245428</v>
       </c>
       <c r="F15" t="n">
-        <v>121.5725942235535</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G15" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H15" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I15" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613903</v>
       </c>
       <c r="J15" t="n">
-        <v>88.27870598367117</v>
+        <v>88.27870598367133</v>
       </c>
       <c r="K15" t="n">
-        <v>186.8757092093129</v>
+        <v>186.8757092093132</v>
       </c>
       <c r="L15" t="n">
-        <v>326.9789606098386</v>
+        <v>326.9789606098391</v>
       </c>
       <c r="M15" t="n">
-        <v>493.618337828795</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N15" t="n">
-        <v>667.0095683106036</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0179527551978</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P15" t="n">
-        <v>943.2842237880225</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q15" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R15" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S15" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T15" t="n">
-        <v>1039.235935236963</v>
+        <v>900.4318404027125</v>
       </c>
       <c r="U15" t="n">
-        <v>1039.235935236963</v>
+        <v>715.7138484714471</v>
       </c>
       <c r="V15" t="n">
-        <v>1039.235935236963</v>
+        <v>715.7138484714471</v>
       </c>
       <c r="W15" t="n">
-        <v>973.3634645350297</v>
+        <v>519.1924713046643</v>
       </c>
       <c r="X15" t="n">
-        <v>809.8861183016926</v>
+        <v>519.1924713046643</v>
       </c>
       <c r="Y15" t="n">
-        <v>670.193229654985</v>
+        <v>379.4995826579567</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="C16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="D16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="E16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="F16" t="n">
-        <v>332.0073559376582</v>
+        <v>166.390146208374</v>
       </c>
       <c r="G16" t="n">
         <v>166.390146208374</v>
       </c>
       <c r="H16" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I16" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J16" t="n">
-        <v>52.18246991706595</v>
+        <v>52.18246991706604</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L16" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620778</v>
       </c>
       <c r="M16" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N16" t="n">
-        <v>327.1503147453034</v>
+        <v>327.150314745304</v>
       </c>
       <c r="O16" t="n">
-        <v>393.5037832208842</v>
+        <v>393.5037832208849</v>
       </c>
       <c r="P16" t="n">
-        <v>447.1830681082848</v>
+        <v>447.1830681082856</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="R16" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="S16" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="T16" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="U16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="V16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="W16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="X16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.3148086387629</v>
+        <v>195.1652561377854</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>226.983200009345</v>
+        <v>726.893484494059</v>
       </c>
       <c r="C17" t="n">
-        <v>226.983200009345</v>
+        <v>726.893484494059</v>
       </c>
       <c r="D17" t="n">
-        <v>226.983200009345</v>
+        <v>726.893484494059</v>
       </c>
       <c r="E17" t="n">
-        <v>226.983200009345</v>
+        <v>668.6388926087621</v>
       </c>
       <c r="F17" t="n">
-        <v>226.983200009345</v>
+        <v>311.543873575341</v>
       </c>
       <c r="G17" t="n">
-        <v>28.28192550744691</v>
+        <v>311.543873575341</v>
       </c>
       <c r="H17" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I17" t="n">
-        <v>47.97023148689603</v>
+        <v>47.97023148689614</v>
       </c>
       <c r="J17" t="n">
-        <v>137.4855014315479</v>
+        <v>137.4855014315481</v>
       </c>
       <c r="K17" t="n">
-        <v>279.8906958536297</v>
+        <v>279.8906958536302</v>
       </c>
       <c r="L17" t="n">
-        <v>462.5534681648032</v>
+        <v>462.5534681648037</v>
       </c>
       <c r="M17" t="n">
-        <v>670.9472812939102</v>
+        <v>670.9472812939113</v>
       </c>
       <c r="N17" t="n">
-        <v>883.4628680500307</v>
+        <v>883.4628680500319</v>
       </c>
       <c r="O17" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P17" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q17" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461808</v>
       </c>
       <c r="R17" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372348</v>
       </c>
       <c r="S17" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T17" t="n">
-        <v>1199.414048669898</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="U17" t="n">
-        <v>941.1732380761862</v>
+        <v>1083.98850352748</v>
       </c>
       <c r="V17" t="n">
-        <v>584.0782190427656</v>
+        <v>1083.98850352748</v>
       </c>
       <c r="W17" t="n">
-        <v>226.983200009345</v>
+        <v>1083.98850352748</v>
       </c>
       <c r="X17" t="n">
-        <v>226.983200009345</v>
+        <v>1083.98850352748</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.983200009345</v>
+        <v>726.893484494059</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.0693897671831</v>
+        <v>145.7878289899422</v>
       </c>
       <c r="C18" t="n">
-        <v>247.0693897671831</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="D18" t="n">
-        <v>247.0693897671831</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="E18" t="n">
-        <v>247.0693897671831</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="F18" t="n">
-        <v>167.5787183736589</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G18" t="n">
-        <v>74.28804965755236</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H18" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I18" t="n">
-        <v>38.02192457613896</v>
+        <v>38.02192457613903</v>
       </c>
       <c r="J18" t="n">
-        <v>88.27870598367117</v>
+        <v>88.27870598367133</v>
       </c>
       <c r="K18" t="n">
-        <v>186.8757092093129</v>
+        <v>186.8757092093132</v>
       </c>
       <c r="L18" t="n">
-        <v>326.9789606098386</v>
+        <v>326.9789606098391</v>
       </c>
       <c r="M18" t="n">
-        <v>493.618337828795</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N18" t="n">
-        <v>667.0095683106036</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O18" t="n">
-        <v>822.0179527551978</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P18" t="n">
-        <v>943.2842237880225</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q18" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R18" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S18" t="n">
-        <v>972.0859925602164</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T18" t="n">
-        <v>833.2818977259649</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="U18" t="n">
-        <v>648.5639057946996</v>
+        <v>854.5179433056987</v>
       </c>
       <c r="V18" t="n">
-        <v>443.5907669339659</v>
+        <v>649.5448044449649</v>
       </c>
       <c r="W18" t="n">
-        <v>247.0693897671831</v>
+        <v>453.0234272781821</v>
       </c>
       <c r="X18" t="n">
-        <v>247.0693897671831</v>
+        <v>414.4077270567125</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.0693897671831</v>
+        <v>274.7148384100049</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="C19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="D19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="E19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="F19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J19" t="n">
-        <v>52.18246991706594</v>
+        <v>52.18246991706604</v>
       </c>
       <c r="K19" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L19" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620778</v>
       </c>
       <c r="M19" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N19" t="n">
-        <v>327.1503147453034</v>
+        <v>327.150314745304</v>
       </c>
       <c r="O19" t="n">
-        <v>393.5037832208842</v>
+        <v>393.5037832208849</v>
       </c>
       <c r="P19" t="n">
-        <v>447.1830681082848</v>
+        <v>447.1830681082856</v>
       </c>
       <c r="Q19" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="R19" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="S19" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="T19" t="n">
-        <v>234.7089807641841</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="U19" t="n">
-        <v>28.28192550744691</v>
+        <v>309.993392899418</v>
       </c>
       <c r="V19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="W19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="X19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.1162387581888</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="C20" t="n">
-        <v>155.1162387581888</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="D20" t="n">
-        <v>155.1162387581888</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="E20" t="n">
-        <v>155.1162387581888</v>
+        <v>413.3570493519012</v>
       </c>
       <c r="F20" t="n">
-        <v>155.1162387581888</v>
+        <v>413.3570493519012</v>
       </c>
       <c r="G20" t="n">
-        <v>28.28192550744691</v>
+        <v>56.26203031848002</v>
       </c>
       <c r="H20" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I20" t="n">
-        <v>47.97023148689595</v>
+        <v>47.97023148689615</v>
       </c>
       <c r="J20" t="n">
-        <v>137.4855014315481</v>
+        <v>137.4855014315482</v>
       </c>
       <c r="K20" t="n">
-        <v>279.8906958536299</v>
+        <v>279.8906958536302</v>
       </c>
       <c r="L20" t="n">
-        <v>462.5534681648033</v>
+        <v>462.553468164804</v>
       </c>
       <c r="M20" t="n">
-        <v>670.9472812939105</v>
+        <v>670.9472812939116</v>
       </c>
       <c r="N20" t="n">
-        <v>883.4628680500308</v>
+        <v>883.4628680500323</v>
       </c>
       <c r="O20" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P20" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q20" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461808</v>
       </c>
       <c r="R20" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372348</v>
       </c>
       <c r="S20" t="n">
-        <v>1342.229314121189</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T20" t="n">
-        <v>1127.547087418741</v>
+        <v>1127.547087418744</v>
       </c>
       <c r="U20" t="n">
-        <v>869.30627682503</v>
+        <v>1127.547087418744</v>
       </c>
       <c r="V20" t="n">
-        <v>869.30627682503</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="W20" t="n">
-        <v>869.30627682503</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="X20" t="n">
-        <v>869.30627682503</v>
+        <v>770.4520683853224</v>
       </c>
       <c r="Y20" t="n">
-        <v>512.2112577916093</v>
+        <v>770.4520683853224</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28.28192550744691</v>
+        <v>163.1674836316793</v>
       </c>
       <c r="C21" t="n">
-        <v>28.28192550744691</v>
+        <v>132.9838592345097</v>
       </c>
       <c r="D21" t="n">
-        <v>28.28192550744691</v>
+        <v>132.9838592345097</v>
       </c>
       <c r="E21" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="F21" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G21" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H21" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I21" t="n">
-        <v>38.02192457613895</v>
+        <v>38.02192457613903</v>
       </c>
       <c r="J21" t="n">
-        <v>88.27870598367116</v>
+        <v>88.27870598367133</v>
       </c>
       <c r="K21" t="n">
-        <v>186.8757092093128</v>
+        <v>186.8757092093132</v>
       </c>
       <c r="L21" t="n">
-        <v>326.9789606098386</v>
+        <v>326.9789606098391</v>
       </c>
       <c r="M21" t="n">
-        <v>493.6183378287949</v>
+        <v>493.6183378287957</v>
       </c>
       <c r="N21" t="n">
-        <v>667.0095683106035</v>
+        <v>667.0095683106045</v>
       </c>
       <c r="O21" t="n">
-        <v>822.0179527551977</v>
+        <v>822.017952755199</v>
       </c>
       <c r="P21" t="n">
-        <v>943.2842237880224</v>
+        <v>943.2842237880237</v>
       </c>
       <c r="Q21" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R21" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S21" t="n">
-        <v>1039.235935236963</v>
+        <v>972.0859925602177</v>
       </c>
       <c r="T21" t="n">
-        <v>1039.235935236963</v>
+        <v>833.2818977259662</v>
       </c>
       <c r="U21" t="n">
-        <v>861.873685835071</v>
+        <v>833.2818977259662</v>
       </c>
       <c r="V21" t="n">
-        <v>656.9005469743372</v>
+        <v>628.3087588652324</v>
       </c>
       <c r="W21" t="n">
-        <v>460.3791698075544</v>
+        <v>431.7873816984496</v>
       </c>
       <c r="X21" t="n">
-        <v>296.9018235742172</v>
+        <v>431.7873816984496</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.2089349275096</v>
+        <v>292.094493051742</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>193.6033412467918</v>
+        <v>166.390146208374</v>
       </c>
       <c r="C22" t="n">
-        <v>28.28192550744691</v>
+        <v>166.390146208374</v>
       </c>
       <c r="D22" t="n">
-        <v>28.28192550744691</v>
+        <v>166.390146208374</v>
       </c>
       <c r="E22" t="n">
-        <v>28.28192550744691</v>
+        <v>166.390146208374</v>
       </c>
       <c r="F22" t="n">
-        <v>28.28192550744691</v>
+        <v>166.390146208374</v>
       </c>
       <c r="G22" t="n">
-        <v>28.28192550744691</v>
+        <v>166.390146208374</v>
       </c>
       <c r="H22" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I22" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J22" t="n">
-        <v>52.18246991706594</v>
+        <v>52.18246991706604</v>
       </c>
       <c r="K22" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L22" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620778</v>
       </c>
       <c r="M22" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N22" t="n">
-        <v>327.1503147453034</v>
+        <v>327.150314745304</v>
       </c>
       <c r="O22" t="n">
-        <v>393.5037832208841</v>
+        <v>393.5037832208849</v>
       </c>
       <c r="P22" t="n">
-        <v>447.1830681082847</v>
+        <v>447.1830681082856</v>
       </c>
       <c r="Q22" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="R22" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="S22" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="T22" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387638</v>
       </c>
       <c r="U22" t="n">
-        <v>475.3148086387629</v>
+        <v>448.1016136003451</v>
       </c>
       <c r="V22" t="n">
-        <v>193.6033412467918</v>
+        <v>166.390146208374</v>
       </c>
       <c r="W22" t="n">
-        <v>193.6033412467918</v>
+        <v>166.390146208374</v>
       </c>
       <c r="X22" t="n">
-        <v>193.6033412467918</v>
+        <v>166.390146208374</v>
       </c>
       <c r="Y22" t="n">
-        <v>193.6033412467918</v>
+        <v>166.390146208374</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1903.050730353934</v>
+        <v>747.7479218349514</v>
       </c>
       <c r="C23" t="n">
-        <v>1903.050730353934</v>
+        <v>747.7479218349514</v>
       </c>
       <c r="D23" t="n">
-        <v>1577.589270380385</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="E23" t="n">
-        <v>1151.612330528242</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G23" t="n">
         <v>324.4553010199517</v>
@@ -5986,16 +5986,16 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1440473010165</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998225</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230812</v>
       </c>
       <c r="M23" t="n">
         <v>1196.576905080624</v>
@@ -6019,22 +6019,22 @@
         <v>2510.272196103408</v>
       </c>
       <c r="T23" t="n">
-        <v>2299.442080053587</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="U23" t="n">
-        <v>2299.442080053587</v>
+        <v>2318.685955285718</v>
       </c>
       <c r="V23" t="n">
-        <v>2299.442080053587</v>
+        <v>1961.196540411967</v>
       </c>
       <c r="W23" t="n">
-        <v>1903.050730353934</v>
+        <v>1564.805190712314</v>
       </c>
       <c r="X23" t="n">
-        <v>1903.050730353934</v>
+        <v>1153.085191880061</v>
       </c>
       <c r="Y23" t="n">
-        <v>1903.050730353934</v>
+        <v>747.7479218349514</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C24" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D24" t="n">
-        <v>1075.336769425637</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E24" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F24" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G24" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H24" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J24" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O24" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P24" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q24" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R24" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S24" t="n">
-        <v>2451.867725109047</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T24" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U24" t="n">
-        <v>2130.274391720472</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V24" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W24" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X24" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="D25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="E25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="F25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="G25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.272196103408</v>
+        <v>746.6436582192389</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.272196103408</v>
+        <v>746.6436582192389</v>
       </c>
       <c r="U25" t="n">
-        <v>2510.272196103408</v>
+        <v>466.5156363664111</v>
       </c>
       <c r="V25" t="n">
-        <v>2228.560728711437</v>
+        <v>184.80416897444</v>
       </c>
       <c r="W25" t="n">
-        <v>1953.70832488395</v>
+        <v>184.80416897444</v>
       </c>
       <c r="X25" t="n">
-        <v>1711.144428329755</v>
+        <v>184.80416897444</v>
       </c>
       <c r="Y25" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>830.2392068509618</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="C26" t="n">
-        <v>830.2392068509618</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="D26" t="n">
-        <v>830.2392068509618</v>
+        <v>1303.339413282501</v>
       </c>
       <c r="E26" t="n">
-        <v>830.2392068509618</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F26" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N26" t="n">
         <v>1562.984812457614</v>
@@ -6244,34 +6244,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
         <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>1989.457241469475</v>
+        <v>2087.729558142952</v>
       </c>
       <c r="V26" t="n">
-        <v>1631.967826595725</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="W26" t="n">
-        <v>1235.576476896071</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="X26" t="n">
-        <v>1235.576476896071</v>
+        <v>1730.240143269201</v>
       </c>
       <c r="Y26" t="n">
-        <v>830.2392068509618</v>
+        <v>1730.240143269201</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C27" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D27" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E27" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F27" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662158</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
         <v>75.83346633145928</v>
@@ -6308,16 +6308,16 @@
         <v>169.6881981570805</v>
       </c>
       <c r="K27" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L27" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M27" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O27" t="n">
         <v>1424.874394922369</v>
@@ -6326,10 +6326,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R27" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S27" t="n">
         <v>1759.362893661493</v>
@@ -6338,19 +6338,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V27" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W27" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y27" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599.0591311496514</v>
+        <v>128.7651405847579</v>
       </c>
       <c r="C28" t="n">
-        <v>599.0591311496514</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D28" t="n">
-        <v>435.7423582764221</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E28" t="n">
-        <v>435.7423582764221</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F28" t="n">
-        <v>263.8805840509825</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G28" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H28" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6417,19 +6417,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V28" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W28" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X28" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y28" t="n">
-        <v>599.0591311496514</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>666.1450971850411</v>
+        <v>747.7479218349513</v>
       </c>
       <c r="C29" t="n">
-        <v>666.1450971850411</v>
+        <v>747.7479218349513</v>
       </c>
       <c r="D29" t="n">
-        <v>666.1450971850411</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="E29" t="n">
-        <v>666.1450971850411</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="F29" t="n">
-        <v>666.1450971850411</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="G29" t="n">
-        <v>264.1122494873501</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
@@ -6475,7 +6475,7 @@
         <v>1196.576905080623</v>
       </c>
       <c r="N29" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O29" t="n">
         <v>1906.806429336001</v>
@@ -6493,22 +6493,22 @@
         <v>2510.272196103407</v>
       </c>
       <c r="T29" t="n">
-        <v>2299.442080053587</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U29" t="n">
-        <v>2299.442080053587</v>
+        <v>2252.101783876848</v>
       </c>
       <c r="V29" t="n">
-        <v>2299.442080053587</v>
+        <v>1894.612369003097</v>
       </c>
       <c r="W29" t="n">
-        <v>1903.050730353934</v>
+        <v>1498.221019303444</v>
       </c>
       <c r="X29" t="n">
-        <v>1491.330731521681</v>
+        <v>1498.221019303444</v>
       </c>
       <c r="Y29" t="n">
-        <v>1085.993461476571</v>
+        <v>1167.596286126481</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C30" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>1075.336769425637</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E30" t="n">
-        <v>970.6348356985741</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F30" t="n">
-        <v>876.9890053814783</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G30" t="n">
-        <v>784.1691672541755</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H30" t="n">
-        <v>742.710275369622</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I30" t="n">
-        <v>768.3382977790131</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J30" t="n">
-        <v>862.1930296046344</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K30" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L30" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M30" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N30" t="n">
-        <v>1852.577516809035</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O30" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P30" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q30" t="n">
-        <v>2458.620841209086</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R30" t="n">
-        <v>2510.272196103407</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S30" t="n">
-        <v>2451.867725109046</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T30" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U30" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V30" t="n">
-        <v>1925.301252859737</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W30" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X30" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.2067019874276</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="C31" t="n">
-        <v>466.2341388663435</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="D31" t="n">
-        <v>466.2341388663435</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="E31" t="n">
-        <v>466.2341388663435</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="F31" t="n">
-        <v>418.685327107497</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G31" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H31" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I31" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J31" t="n">
         <v>101.4579413382349</v>
@@ -6648,25 +6648,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>880.7705985416225</v>
+        <v>778.2531390140134</v>
       </c>
       <c r="T31" t="n">
-        <v>880.7705985416225</v>
+        <v>778.2531390140134</v>
       </c>
       <c r="U31" t="n">
-        <v>880.7705985416225</v>
+        <v>498.1251171611857</v>
       </c>
       <c r="V31" t="n">
-        <v>880.7705985416225</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="W31" t="n">
-        <v>880.7705985416225</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="X31" t="n">
-        <v>638.2067019874276</v>
+        <v>216.4136497692146</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.2067019874276</v>
+        <v>216.4136497692146</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2427.782621182084</v>
+        <v>1302.431642421459</v>
       </c>
       <c r="C32" t="n">
-        <v>2000.881891195384</v>
+        <v>875.5309124347589</v>
       </c>
       <c r="D32" t="n">
-        <v>1577.589270380385</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E32" t="n">
-        <v>1151.612330528242</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F32" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G32" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H32" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010159</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998219</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230807</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N32" t="n">
         <v>1562.984812457614</v>
@@ -6718,34 +6718,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q32" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R32" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2458.457769745854</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2458.457769745854</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V32" t="n">
-        <v>2458.457769745854</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="W32" t="n">
-        <v>2458.457769745854</v>
+        <v>1714.151641253711</v>
       </c>
       <c r="X32" t="n">
-        <v>2458.457769745854</v>
+        <v>1302.431642421459</v>
       </c>
       <c r="Y32" t="n">
-        <v>2458.457769745854</v>
+        <v>1302.431642421459</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G33" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H33" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
         <v>75.83346633145928</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1679.707041483853</v>
+        <v>221.6979649651039</v>
       </c>
       <c r="C34" t="n">
-        <v>1679.707041483853</v>
+        <v>221.6979649651039</v>
       </c>
       <c r="D34" t="n">
-        <v>1679.707041483853</v>
+        <v>221.6979649651039</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483853</v>
+        <v>221.6979649651039</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2358.165462296848</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>2119.246201860737</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.118180007909</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V34" t="n">
-        <v>1679.707041483853</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.707041483853</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="X34" t="n">
-        <v>1679.707041483853</v>
+        <v>638.2067019874276</v>
       </c>
       <c r="Y34" t="n">
-        <v>1679.707041483853</v>
+        <v>411.8639336771696</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2427.782621182084</v>
+        <v>1174.648651821651</v>
       </c>
       <c r="C35" t="n">
-        <v>2000.881891195384</v>
+        <v>747.7479218349514</v>
       </c>
       <c r="D35" t="n">
-        <v>1577.589270380385</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="E35" t="n">
-        <v>1151.612330528242</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="F35" t="n">
-        <v>726.4881487176426</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="G35" t="n">
         <v>324.4553010199517</v>
@@ -6937,13 +6937,13 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998224</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080624</v>
@@ -6952,7 +6952,7 @@
         <v>1562.984812457614</v>
       </c>
       <c r="O35" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
         <v>2194.643812107885</v>
@@ -6964,25 +6964,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U35" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V35" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W35" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X35" t="n">
-        <v>2510.272196103408</v>
+        <v>1579.985921866761</v>
       </c>
       <c r="Y35" t="n">
-        <v>2510.272196103408</v>
+        <v>1174.648651821651</v>
       </c>
     </row>
     <row r="36">
@@ -6998,34 +6998,34 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J36" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K36" t="n">
         <v>342.8010428266099</v>
       </c>
       <c r="L36" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M36" t="n">
-        <v>866.6631241688302</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N36" t="n">
         <v>1160.072685361481</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1679.707041483854</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="C37" t="n">
-        <v>1679.707041483854</v>
+        <v>213.5222167952975</v>
       </c>
       <c r="D37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L37" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M37" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N37" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O37" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P37" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R37" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>2480.465791164764</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T37" t="n">
-        <v>2241.546530728653</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U37" t="n">
-        <v>1961.418508875825</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V37" t="n">
-        <v>1679.707041483854</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.707041483854</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X37" t="n">
-        <v>1679.707041483854</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y37" t="n">
-        <v>1679.707041483854</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7281126045414</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C38" t="n">
-        <v>815.7281126045414</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D38" t="n">
-        <v>815.7281126045414</v>
+        <v>901.3065655848104</v>
       </c>
       <c r="E38" t="n">
-        <v>749.5794828305513</v>
+        <v>475.3296257326679</v>
       </c>
       <c r="F38" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="G38" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
@@ -7177,16 +7177,16 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L38" t="n">
-        <v>836.7412585230813</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O38" t="n">
         <v>1906.806429336001</v>
@@ -7201,25 +7201,25 @@
         <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2458.457769745854</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.627653696034</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="U38" t="n">
-        <v>1989.457241469475</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="V38" t="n">
-        <v>1631.967826595725</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="W38" t="n">
-        <v>1235.576476896071</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="X38" t="n">
-        <v>1235.576476896071</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="Y38" t="n">
-        <v>1235.576476896071</v>
+        <v>2171.34828067804</v>
       </c>
     </row>
     <row r="39">
@@ -7235,22 +7235,22 @@
         <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J39" t="n">
         <v>169.6881981570805</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>641.8513381055109</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="C40" t="n">
-        <v>469.8787749844269</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="D40" t="n">
-        <v>469.8787749844269</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="E40" t="n">
-        <v>387.2896993273635</v>
+        <v>159.5819670141612</v>
       </c>
       <c r="F40" t="n">
-        <v>215.4279251019238</v>
+        <v>159.5819670141612</v>
       </c>
       <c r="G40" t="n">
-        <v>50.20544392206814</v>
+        <v>159.5819670141612</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7362,22 +7362,22 @@
         <v>880.7705985416225</v>
       </c>
       <c r="T40" t="n">
-        <v>641.8513381055109</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>641.8513381055109</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V40" t="n">
-        <v>641.8513381055109</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="W40" t="n">
-        <v>641.8513381055109</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="X40" t="n">
-        <v>641.8513381055109</v>
+        <v>325.7901728613077</v>
       </c>
       <c r="Y40" t="n">
-        <v>641.8513381055109</v>
+        <v>325.7901728613077</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1235.576476896072</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C41" t="n">
-        <v>1235.576476896072</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D41" t="n">
-        <v>812.2838560810721</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E41" t="n">
-        <v>812.2838560810721</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F41" t="n">
         <v>726.4881487176426</v>
@@ -7414,13 +7414,13 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998232</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230818</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N41" t="n">
         <v>1562.984812457614</v>
@@ -7441,22 +7441,22 @@
         <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.627653696034</v>
+        <v>2297.426182168409</v>
       </c>
       <c r="U41" t="n">
-        <v>1989.457241469476</v>
+        <v>2297.426182168409</v>
       </c>
       <c r="V41" t="n">
-        <v>1631.967826595725</v>
+        <v>1939.936767294658</v>
       </c>
       <c r="W41" t="n">
-        <v>1235.576476896072</v>
+        <v>1543.545417595005</v>
       </c>
       <c r="X41" t="n">
-        <v>1235.576476896072</v>
+        <v>1131.825418762752</v>
       </c>
       <c r="Y41" t="n">
-        <v>1235.576476896072</v>
+        <v>726.4881487176426</v>
       </c>
     </row>
     <row r="42">
@@ -7472,16 +7472,16 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H42" t="n">
         <v>50.20544392206816</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>411.8639336771696</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="C43" t="n">
-        <v>239.8913705560856</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="D43" t="n">
-        <v>239.8913705560856</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="E43" t="n">
-        <v>239.8913705560856</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="F43" t="n">
-        <v>215.4279251019238</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206816</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H43" t="n">
         <v>50.20544392206816</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="W43" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="X43" t="n">
-        <v>638.2067019874276</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="Y43" t="n">
-        <v>411.8639336771696</v>
+        <v>489.7446042989517</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.648651821651</v>
+        <v>858.5966186166381</v>
       </c>
       <c r="C44" t="n">
-        <v>747.7479218349513</v>
+        <v>858.5966186166381</v>
       </c>
       <c r="D44" t="n">
-        <v>324.4553010199516</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E44" t="n">
-        <v>324.4553010199516</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F44" t="n">
-        <v>324.4553010199516</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>324.4553010199516</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
         <v>103.1440473010161</v>
@@ -7651,7 +7651,7 @@
         <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998221</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
         <v>836.7412585230809</v>
@@ -7669,31 +7669,31 @@
         <v>2194.643812107884</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2458.457769745854</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.627653696034</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>1989.457241469475</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>1631.967826595724</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>1235.576476896071</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="X44" t="n">
-        <v>1174.648651821651</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="Y44" t="n">
-        <v>1174.648651821651</v>
+        <v>1278.444982908168</v>
       </c>
     </row>
     <row r="45">
@@ -7709,34 +7709,34 @@
         <v>486.671896462798</v>
       </c>
       <c r="D45" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E45" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F45" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J45" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570804</v>
       </c>
       <c r="K45" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266098</v>
       </c>
       <c r="L45" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744359</v>
       </c>
       <c r="M45" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688299</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="C46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="D46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="E46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="F46" t="n">
-        <v>50.20544392206813</v>
+        <v>147.069335071384</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7839,19 +7839,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U46" t="n">
-        <v>606.7693151415262</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V46" t="n">
-        <v>325.0578477495551</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="X46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.20544392206813</v>
+        <v>318.9311092968235</v>
       </c>
     </row>
   </sheetData>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>397.4315733783146</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>404.4134154165328</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -22558,19 +22558,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8262549488134</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>381.7663341259155</v>
+        <v>399.9846413962156</v>
       </c>
       <c r="H2" t="n">
-        <v>273.4860474864606</v>
+        <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>4.338596154314475</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788004</v>
+        <v>3.021643902788007</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628976</v>
+        <v>2.536891551628983</v>
       </c>
       <c r="R2" t="n">
         <v>15.49488714450009</v>
@@ -22603,7 +22603,7 @@
         <v>217.3547797125806</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7464778783334</v>
+        <v>239.6997928346531</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22612,7 +22612,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>389.3844915736301</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22649,7 +22649,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784962</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,28 +22670,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>13.34053384443212</v>
       </c>
       <c r="S3" t="n">
-        <v>61.37321701003694</v>
+        <v>59.20159478341719</v>
       </c>
       <c r="T3" t="n">
-        <v>139.7903633642173</v>
+        <v>121.5720560939172</v>
       </c>
       <c r="U3" t="n">
-        <v>164.691258432811</v>
+        <v>182.9095657031111</v>
       </c>
       <c r="V3" t="n">
-        <v>184.7051002018263</v>
+        <v>188.3809132295171</v>
       </c>
       <c r="W3" t="n">
-        <v>176.3378561248149</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>143.6242655007036</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -22716,7 +22716,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>169.5540326412546</v>
       </c>
       <c r="G4" t="n">
         <v>164.4548824832565</v>
@@ -22728,25 +22728,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J4" t="n">
-        <v>10.77286693432814</v>
+        <v>10.77286693432815</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277748</v>
+        <v>4.755254677277751</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163518</v>
+        <v>1.176308884163522</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544557</v>
+        <v>0.7054336060544593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.189895604189331</v>
+        <v>2.779019446119925</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936622</v>
+        <v>5.506790124936625</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22786,7 +22786,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22807,7 +22807,7 @@
         <v>21.70782937363144</v>
       </c>
       <c r="J5" t="n">
-        <v>1.152398102006448</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1585647136001498</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S5" t="n">
         <v>95.73414793822852</v>
       </c>
       <c r="T5" t="n">
-        <v>217.2583703575925</v>
+        <v>197.8619779988728</v>
       </c>
       <c r="U5" t="n">
         <v>255.7447159712177</v>
       </c>
       <c r="V5" t="n">
-        <v>347.3185977219667</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>368.9177232436122</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>104.1280263668177</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>92.82113148862588</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>80.14520143074776</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>72.0020168395986</v>
       </c>
       <c r="G6" t="n">
         <v>92.93503434185737</v>
       </c>
       <c r="H6" t="n">
-        <v>27.61158518215662</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.03700156004394</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>12.60890503121191</v>
       </c>
       <c r="S6" t="n">
-        <v>70.3058180838794</v>
+        <v>77.20102327270656</v>
       </c>
       <c r="T6" t="n">
-        <v>116.2331534512771</v>
+        <v>139.7428664103214</v>
       </c>
       <c r="U6" t="n">
         <v>182.9087904535916</v>
       </c>
       <c r="V6" t="n">
-        <v>179.413694513082</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22959,16 +22959,16 @@
         <v>164.4450033473029</v>
       </c>
       <c r="H7" t="n">
-        <v>141.0300336718695</v>
+        <v>137.8462006436736</v>
       </c>
       <c r="I7" t="n">
         <v>94.27811752316894</v>
       </c>
       <c r="J7" t="n">
-        <v>10.07441202240546</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K7" t="n">
-        <v>3.607478700117923</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,13 +22980,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.382648484235656</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P7" t="n">
-        <v>4.31195353650671</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.925796570928314</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R7" t="n">
         <v>39.85081002223924</v>
@@ -23026,25 +23026,25 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>395.1971999299345</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>414.9018251189389</v>
       </c>
       <c r="G8" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H8" t="n">
-        <v>270.445680119102</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
         <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>1.027774177190942</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.01919626068105</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543278</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2519426784705</v>
+        <v>193.3894480015554</v>
       </c>
       <c r="U8" t="n">
         <v>255.7445985036381</v>
       </c>
       <c r="V8" t="n">
-        <v>330.0520260480979</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>383.7403041670151</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23105,25 +23105,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>78.93906422295268</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>79.79241971287701</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>68.84687733700974</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>81.92611572630648</v>
+        <v>69.07175403124204</v>
       </c>
       <c r="H9" t="n">
         <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J9" t="n">
-        <v>3.700923269594423</v>
+        <v>3.700923269594419</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>12.56012682656195</v>
       </c>
       <c r="S9" t="n">
-        <v>77.18643047130134</v>
+        <v>53.32393579438619</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U9" t="n">
-        <v>182.908738767164</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23196,16 +23196,16 @@
         <v>164.4443446983998</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0241776843491</v>
+        <v>137.5443930882748</v>
       </c>
       <c r="I10" t="n">
         <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>10.02784554495553</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530955673011054</v>
+        <v>3.53095567301105</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,13 +23217,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.289551455639593</v>
       </c>
       <c r="P10" t="n">
-        <v>2.042059805099459</v>
+        <v>4.232292945534109</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.05447673506465</v>
+        <v>12.05447673506464</v>
       </c>
       <c r="R10" t="n">
         <v>39.82119477246847</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290.0839105303803</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>222.2122296183864</v>
       </c>
       <c r="G11" t="n">
         <v>398.8836990142266</v>
       </c>
       <c r="H11" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3904518819266514</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>38.90336735956964</v>
       </c>
       <c r="X11" t="n">
-        <v>54.07873000084385</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>19.83878342422157</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H12" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.47844324997878</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T12" t="n">
         <v>137.416053885909</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8708120119527</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>129.3424174002014</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>113.3354401014487</v>
+        <v>47.62821226515966</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.7271384939178</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.08995158650409</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.3959181317836</v>
       </c>
       <c r="T13" t="n">
         <v>238.199769595833</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>67.34887114940733</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>45.35963017114017</v>
+        <v>45.35963017113966</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.19362038886933</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.5354044354234</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6584024877743</v>
+        <v>227.9580987248516</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0.3904518819260829</v>
       </c>
       <c r="W14" t="n">
-        <v>38.90336735957015</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>47.75982850157163</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>92.62738959824472</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.47844324997878</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T15" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>182.8708120119527</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W15" t="n">
-        <v>129.3424174002014</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>28.26877830909149</v>
+        <v>141.655797653068</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9610376319913</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650409</v>
       </c>
       <c r="S16" t="n">
         <v>157.3959181317836</v>
@@ -23709,7 +23709,7 @@
         <v>238.199769595833</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3480569759686</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>364.0451244871772</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>67.34887114940682</v>
       </c>
       <c r="G17" t="n">
-        <v>202.1694372573475</v>
+        <v>398.8836990142266</v>
       </c>
       <c r="H17" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.14829163864474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.5354044354234</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3904518819266514</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>38.90336735957021</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>47.75982850157163</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
@@ -23822,13 +23822,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>14.01360733433593</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>123.6130295517488</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23910,7 +23910,7 @@
         <v>136.7271384939178</v>
       </c>
       <c r="I19" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.08995158650412</v>
+        <v>18.08995158650409</v>
       </c>
       <c r="S19" t="n">
         <v>157.3959181317836</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>238.199769595833</v>
       </c>
       <c r="U19" t="n">
-        <v>72.98527227179883</v>
+        <v>113.6798553940164</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.12581180552837</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>68.19310161053409</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>273.3177288959921</v>
+        <v>45.35963017113966</v>
       </c>
       <c r="H20" t="n">
-        <v>280.4293285872151</v>
+        <v>252.7290248242924</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6584024877743</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0.3904518819260829</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.7598285015722</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24050,13 +24050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>86.4490562944724</v>
       </c>
       <c r="D21" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>92.70937201392488</v>
@@ -24065,7 +24065,7 @@
         <v>92.35776202894547</v>
       </c>
       <c r="H21" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.4784432499788</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>7.282185104079951</v>
+        <v>182.8708120119527</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>6.584635907921722</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24144,10 +24144,10 @@
         <v>163.9610376319913</v>
       </c>
       <c r="H22" t="n">
-        <v>136.7271384939178</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725467</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.08995158650413</v>
+        <v>18.08995158650409</v>
       </c>
       <c r="S22" t="n">
         <v>157.3959181317836</v>
@@ -24183,7 +24183,7 @@
         <v>238.199769595833</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3480569759686</v>
+        <v>250.4069938879341</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>96.85284923303584</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5887081042933</v>
+        <v>65.91832969478025</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>67.97209018366931</v>
@@ -24414,25 +24414,25 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>17.79999554933389</v>
       </c>
       <c r="T25" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9563276497133</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>318.1593924405078</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>97.28959350674128</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>92.47873779381031</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>153.2566956259494</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
@@ -24694,10 +24694,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>59.73962101727547</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>73.96541149946523</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>123.0698328419271</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>49.09338153616068</v>
       </c>
       <c r="T31" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>385.2814835704824</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>119.8748919890501</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0.3655606505797664</v>
       </c>
       <c r="G34" t="n">
         <v>163.5702563680571</v>
@@ -25125,25 +25125,25 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>121.0773255792359</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.9852014765046</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>356.140713162256</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>65.89803391336233</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -25362,10 +25362,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
-        <v>121.0773255792366</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>356.2300269773709</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>65.74922107354581</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>82.78293888818222</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>24.96997994067597</v>
       </c>
       <c r="I40" t="n">
         <v>67.97209018366931</v>
@@ -25602,16 +25602,16 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -25633,13 +25633,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>335.9351897026985</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>49.30054318765033</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25797,13 +25797,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>145.924345483565</v>
+        <v>31.82238187997575</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>67.97209018366931</v>
@@ -25836,10 +25836,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3267416342995</v>
@@ -25851,10 +25851,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>288.2723094068441</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>347.2842520202545</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5702563680571</v>
+        <v>67.67500413023448</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -26079,13 +26079,13 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>6.065471068204278</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>56996.78202527534</v>
+        <v>56996.78202527532</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>61313.04680945943</v>
+        <v>61313.04680945945</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>61595.53297491178</v>
+        <v>61595.53297491177</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258843.5790362368</v>
+        <v>258843.5790362369</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>258843.5790362366</v>
+        <v>258843.579036237</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258843.5790362367</v>
+        <v>258843.579036237</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258843.5790362367</v>
+        <v>258843.5790362369</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>417916.6797989398</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>417916.6797989398</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417916.6797989397</v>
+        <v>417916.6797989396</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417916.6797989396</v>
+        <v>417916.6797989397</v>
       </c>
     </row>
   </sheetData>
@@ -26322,22 +26322,22 @@
         <v>26398.08556067647</v>
       </c>
       <c r="E2" t="n">
-        <v>110932.9624441015</v>
+        <v>110932.9624441016</v>
       </c>
       <c r="F2" t="n">
-        <v>110932.9624441015</v>
+        <v>110932.9624441016</v>
       </c>
       <c r="G2" t="n">
-        <v>110932.9624441014</v>
+        <v>110932.9624441017</v>
       </c>
       <c r="H2" t="n">
-        <v>110932.9624441015</v>
+        <v>110932.9624441016</v>
       </c>
       <c r="I2" t="n">
+        <v>179107.1484852599</v>
+      </c>
+      <c r="J2" t="n">
         <v>179107.1484852598</v>
-      </c>
-      <c r="J2" t="n">
-        <v>179107.1484852597</v>
       </c>
       <c r="K2" t="n">
         <v>179107.1484852599</v>
@@ -26346,13 +26346,13 @@
         <v>179107.1484852599</v>
       </c>
       <c r="M2" t="n">
+        <v>179107.1484852599</v>
+      </c>
+      <c r="N2" t="n">
         <v>179107.1484852598</v>
       </c>
-      <c r="N2" t="n">
-        <v>179107.1484852597</v>
-      </c>
       <c r="O2" t="n">
-        <v>179107.1484852599</v>
+        <v>179107.1484852598</v>
       </c>
       <c r="P2" t="n">
         <v>179107.1484852597</v>
@@ -26368,13 +26368,13 @@
         <v>80658.96448328666</v>
       </c>
       <c r="C3" t="n">
-        <v>6698.167324106117</v>
+        <v>6698.167324106151</v>
       </c>
       <c r="D3" t="n">
         <v>422.3904454242985</v>
       </c>
       <c r="E3" t="n">
-        <v>313754.3405050006</v>
+        <v>313754.340505001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>235999.2542028934</v>
+        <v>235999.2542028929</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430373</v>
+        <v>4766.710787430398</v>
       </c>
       <c r="K3" t="n">
-        <v>1361.838499300731</v>
+        <v>1361.838499300679</v>
       </c>
       <c r="L3" t="n">
-        <v>89.28587775762908</v>
+        <v>89.28587775768662</v>
       </c>
       <c r="M3" t="n">
-        <v>82152.98292850654</v>
+        <v>82152.98292850668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.22273493796323</v>
+        <v>13.22273493796322</v>
       </c>
       <c r="C4" t="n">
-        <v>17.15222569169688</v>
+        <v>17.15222569169689</v>
       </c>
       <c r="D4" t="n">
-        <v>17.41872404354269</v>
+        <v>17.4187240435427</v>
       </c>
       <c r="E4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="F4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="G4" t="n">
-        <v>248.339487055953</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="H4" t="n">
-        <v>248.3394870559529</v>
+        <v>248.3394870559534</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
@@ -26475,43 +26475,43 @@
         <v>36863.06036917747</v>
       </c>
       <c r="D5" t="n">
-        <v>36892.4719640909</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="F5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="G5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="H5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621166</v>
       </c>
       <c r="I5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="L5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="M5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659395</v>
       </c>
       <c r="O5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="P5" t="n">
-        <v>50537.10295659395</v>
+        <v>50537.10295659397</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92666.90805233298</v>
+        <v>-94006.69475904401</v>
       </c>
       <c r="C6" t="n">
-        <v>-17301.35985777838</v>
+        <v>-18632.33786084825</v>
       </c>
       <c r="D6" t="n">
-        <v>-10934.19557288227</v>
+        <v>-12264.59707357361</v>
       </c>
       <c r="E6" t="n">
-        <v>-232220.7562841667</v>
+        <v>-233148.6107520801</v>
       </c>
       <c r="F6" t="n">
-        <v>81533.58422083393</v>
+        <v>80605.72975292087</v>
       </c>
       <c r="G6" t="n">
-        <v>81533.58422083386</v>
+        <v>80605.7297529209</v>
       </c>
       <c r="H6" t="n">
-        <v>81533.5842208339</v>
+        <v>80605.72975292084</v>
       </c>
       <c r="I6" t="n">
-        <v>-107869.6624660816</v>
+        <v>-108472.8779528457</v>
       </c>
       <c r="J6" t="n">
-        <v>123362.8809493814</v>
+        <v>122759.6654626167</v>
       </c>
       <c r="K6" t="n">
-        <v>126767.7532375112</v>
+        <v>126164.5377507465</v>
       </c>
       <c r="L6" t="n">
-        <v>128040.3058590543</v>
+        <v>127437.0903722895</v>
       </c>
       <c r="M6" t="n">
-        <v>45976.6088083053</v>
+        <v>45373.39332154048</v>
       </c>
       <c r="N6" t="n">
-        <v>128129.5917368118</v>
+        <v>127526.3762500471</v>
       </c>
       <c r="O6" t="n">
-        <v>128129.5917368119</v>
+        <v>127526.3762500471</v>
       </c>
       <c r="P6" t="n">
-        <v>128129.5917368118</v>
+        <v>127526.376250047</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
-        <v>82.84723950768692</v>
+        <v>82.84723950768694</v>
       </c>
       <c r="D3" t="n">
-        <v>83.21249026304835</v>
+        <v>83.21249026304837</v>
       </c>
       <c r="E3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="F3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="G3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="H3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.22822708954</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C4" t="n">
         <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691513</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E4" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="F4" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="G4" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H4" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="I4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="L4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258517</v>
       </c>
       <c r="O4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="P4" t="n">
-        <v>627.5680490258517</v>
+        <v>627.5680490258519</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975662</v>
+        <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
-        <v>5.478429937930301</v>
+        <v>5.478429937930329</v>
       </c>
       <c r="D3" t="n">
         <v>0.3652507553614299</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0157368264912</v>
+        <v>268.0157368264915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>216.7059736362482</v>
+        <v>216.7059736362477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="C4" t="n">
-        <v>5.291405688744256</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="D4" t="n">
         <v>0.3527817178707622</v>
       </c>
       <c r="E4" t="n">
-        <v>329.6615741661711</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.0439801827656</v>
+        <v>274.043980182765</v>
       </c>
       <c r="J4" t="n">
-        <v>18.2183072703</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744256</v>
+        <v>5.291405688744053</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178707622</v>
+        <v>0.3527817178709896</v>
       </c>
       <c r="M4" t="n">
-        <v>329.6615741661712</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744256</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="L4" t="n">
         <v>0.3527817178707622</v>
       </c>
       <c r="M4" t="n">
-        <v>329.6615741661711</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>3.185339983944802</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99099911934892</v>
+        <v>11.99099911934891</v>
       </c>
       <c r="J2" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K2" t="n">
-        <v>39.56423200124193</v>
+        <v>39.56423200124192</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624872</v>
+        <v>49.08292830624871</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850463</v>
+        <v>54.61421500850462</v>
       </c>
       <c r="N2" t="n">
         <v>55.49793010474612</v>
       </c>
       <c r="O2" t="n">
-        <v>52.4051216618948</v>
+        <v>52.40512166189479</v>
       </c>
       <c r="P2" t="n">
         <v>44.72655890308729</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.58778305296907</v>
+        <v>33.58778305296906</v>
       </c>
       <c r="R2" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370168</v>
+        <v>7.087605017370167</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02488243121841416</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.166415930017967</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607227534647209</v>
+        <v>1.607227534647208</v>
       </c>
       <c r="I3" t="n">
-        <v>5.729671274741411</v>
+        <v>5.72967127474141</v>
       </c>
       <c r="J3" t="n">
         <v>15.72265591454837</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575216</v>
       </c>
       <c r="L3" t="n">
-        <v>31.78561213073775</v>
+        <v>36.13342375236605</v>
       </c>
       <c r="M3" t="n">
-        <v>41.31508778262809</v>
+        <v>41.31508778262807</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384177</v>
+        <v>39.56133548384176</v>
       </c>
       <c r="O3" t="n">
-        <v>39.59458313896781</v>
+        <v>39.5945831389678</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913268</v>
+        <v>22.95704267508554</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.24284748790752</v>
+        <v>21.24284748790751</v>
       </c>
       <c r="R3" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640746</v>
+        <v>3.091102910640745</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6707729810811914</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1395175254536594</v>
       </c>
       <c r="H4" t="n">
         <v>1.240437635397082</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733688</v>
+        <v>4.195672492733687</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573723</v>
+        <v>9.863889049573721</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
@@ -31220,7 +31220,7 @@
         <v>21.87000628543136</v>
       </c>
       <c r="N4" t="n">
-        <v>21.34998641783138</v>
+        <v>21.34998641783137</v>
       </c>
       <c r="O4" t="n">
         <v>19.72016805230453</v>
@@ -31232,16 +31232,16 @@
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852723</v>
+        <v>6.273215280852722</v>
       </c>
       <c r="S4" t="n">
         <v>2.431409966315137</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.5961203360292719</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.007610046842926888</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>0.3330542291766306</v>
       </c>
       <c r="H5" t="n">
-        <v>3.410891624555169</v>
+        <v>3.41089162455517</v>
       </c>
       <c r="I5" t="n">
-        <v>12.84007317033206</v>
+        <v>12.84007317033207</v>
       </c>
       <c r="J5" t="n">
         <v>28.26756138358008</v>
       </c>
       <c r="K5" t="n">
-        <v>42.36574690462686</v>
+        <v>42.36574690462687</v>
       </c>
       <c r="L5" t="n">
-        <v>52.55845527079117</v>
+        <v>52.55845527079118</v>
       </c>
       <c r="M5" t="n">
-        <v>58.48140841891107</v>
+        <v>58.48140841891108</v>
       </c>
       <c r="N5" t="n">
-        <v>59.42769874755918</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O5" t="n">
-        <v>56.11589075618406</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P5" t="n">
-        <v>47.89361447338598</v>
+        <v>47.89361447338599</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.96610989099789</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R5" t="n">
         <v>20.92121772351654</v>
       </c>
       <c r="S5" t="n">
-        <v>7.589473247362477</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T5" t="n">
         <v>1.457944888220701</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02664433833413044</v>
+        <v>0.02664433833413045</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1781997227146473</v>
+        <v>0.1781997227146474</v>
       </c>
       <c r="H6" t="n">
         <v>1.721034164112516</v>
       </c>
       <c r="I6" t="n">
-        <v>6.135385189956061</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J6" t="n">
-        <v>16.83596590787815</v>
+        <v>16.83596590787816</v>
       </c>
       <c r="K6" t="n">
         <v>28.77534732975953</v>
       </c>
       <c r="L6" t="n">
-        <v>38.69200558328341</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M6" t="n">
-        <v>45.15174553168936</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N6" t="n">
-        <v>38.34014775380278</v>
+        <v>38.34014775380277</v>
       </c>
       <c r="O6" t="n">
-        <v>42.39824718465559</v>
+        <v>42.3982471846556</v>
       </c>
       <c r="P6" t="n">
-        <v>34.0283312611856</v>
+        <v>34.02833126118561</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.74703828897849</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>11.06401436293223</v>
@@ -31396,7 +31396,7 @@
         <v>3.309981691651452</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7182699349770213</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U6" t="n">
         <v>0.01172366596806891</v>
@@ -31442,19 +31442,19 @@
         <v>1.32827213505767</v>
       </c>
       <c r="I7" t="n">
-        <v>4.492765053957842</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J7" t="n">
         <v>10.56234396149641</v>
       </c>
       <c r="K7" t="n">
-        <v>17.35717575259407</v>
+        <v>17.35717575259408</v>
       </c>
       <c r="L7" t="n">
         <v>22.21120909686413</v>
       </c>
       <c r="M7" t="n">
-        <v>23.41860575132861</v>
+        <v>23.41860575132862</v>
       </c>
       <c r="N7" t="n">
         <v>22.86176364971959</v>
@@ -31463,22 +31463,22 @@
         <v>21.1165390141888</v>
       </c>
       <c r="P7" t="n">
-        <v>18.06884712147977</v>
+        <v>18.06884712147978</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.50993316566072</v>
+        <v>12.50993316566073</v>
       </c>
       <c r="R7" t="n">
-        <v>6.717417157459334</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S7" t="n">
         <v>2.603576362889111</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6383311896493908</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008148908804034788</v>
+        <v>0.00814890880403479</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,31 +31518,31 @@
         <v>0.3345225739218022</v>
       </c>
       <c r="H8" t="n">
-        <v>3.425929310176657</v>
+        <v>3.425929310176658</v>
       </c>
       <c r="I8" t="n">
         <v>12.89668153112029</v>
       </c>
       <c r="J8" t="n">
-        <v>28.39218530839558</v>
+        <v>28.39218530839559</v>
       </c>
       <c r="K8" t="n">
         <v>42.55252586250548</v>
       </c>
       <c r="L8" t="n">
-        <v>52.79017108416484</v>
+        <v>52.79017108416485</v>
       </c>
       <c r="M8" t="n">
         <v>58.73923690814669</v>
       </c>
       <c r="N8" t="n">
-        <v>59.68969917130201</v>
+        <v>59.68969917130202</v>
       </c>
       <c r="O8" t="n">
-        <v>56.36329032686709</v>
+        <v>56.3632903268671</v>
       </c>
       <c r="P8" t="n">
-        <v>48.10476428317259</v>
+        <v>48.1047642831726</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -31551,7 +31551,7 @@
         <v>21.01345363411543</v>
       </c>
       <c r="S8" t="n">
-        <v>7.622933153243075</v>
+        <v>7.622933153243076</v>
       </c>
       <c r="T8" t="n">
         <v>1.46437256734269</v>
@@ -31600,31 +31600,31 @@
         <v>1.728621731690873</v>
       </c>
       <c r="I9" t="n">
-        <v>6.162434420423865</v>
+        <v>6.162434420423866</v>
       </c>
       <c r="J9" t="n">
-        <v>16.91019106373891</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K9" t="n">
         <v>28.90220994353445</v>
       </c>
       <c r="L9" t="n">
-        <v>38.86258802332273</v>
+        <v>38.86258802332274</v>
       </c>
       <c r="M9" t="n">
-        <v>45.35080719336135</v>
+        <v>45.35080719336136</v>
       </c>
       <c r="N9" t="n">
-        <v>38.90357028119602</v>
+        <v>38.80328482851642</v>
       </c>
       <c r="O9" t="n">
-        <v>42.58516942735456</v>
+        <v>42.58516942735457</v>
       </c>
       <c r="P9" t="n">
-        <v>34.17835284030754</v>
+        <v>34.17835284030755</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>22.84732374165811</v>
       </c>
       <c r="R9" t="n">
         <v>11.1127925675822</v>
@@ -31633,10 +31633,10 @@
         <v>3.324574493056694</v>
       </c>
       <c r="T9" t="n">
-        <v>0.721436590110768</v>
+        <v>0.7214365901107681</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01177535239571439</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31685,19 +31685,19 @@
         <v>10.60891043894634</v>
       </c>
       <c r="K10" t="n">
-        <v>17.43369877970094</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L10" t="n">
-        <v>22.3091322256048</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M10" t="n">
-        <v>23.52185196074987</v>
+        <v>23.52185196074988</v>
       </c>
       <c r="N10" t="n">
         <v>22.96255489504744</v>
       </c>
       <c r="O10" t="n">
-        <v>21.20963604278485</v>
+        <v>21.20963604278486</v>
       </c>
       <c r="P10" t="n">
         <v>18.14850771245237</v>
@@ -31706,16 +31706,16 @@
         <v>12.5650860297203</v>
       </c>
       <c r="R10" t="n">
-        <v>6.747032407230114</v>
+        <v>6.747032407230116</v>
       </c>
       <c r="S10" t="n">
-        <v>2.615054816955141</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6411454167808641</v>
+        <v>0.6411454167808642</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00818483510784083</v>
+        <v>0.008184835107840831</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H11" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I11" t="n">
-        <v>54.43508030098282</v>
+        <v>54.43508030098288</v>
       </c>
       <c r="J11" t="n">
-        <v>119.839424076144</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K11" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L11" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519903</v>
       </c>
       <c r="M11" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N11" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O11" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252572</v>
       </c>
       <c r="P11" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110943</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R11" t="n">
-        <v>88.69483465291775</v>
+        <v>88.69483465291785</v>
       </c>
       <c r="S11" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T11" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7554720356265567</v>
+        <v>0.7554720356265576</v>
       </c>
       <c r="H12" t="n">
-        <v>7.296269396709115</v>
+        <v>7.296269396709123</v>
       </c>
       <c r="I12" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J12" t="n">
-        <v>71.37553999750729</v>
+        <v>71.37553999750737</v>
       </c>
       <c r="K12" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L12" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723366</v>
       </c>
       <c r="M12" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N12" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658739</v>
       </c>
       <c r="O12" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P12" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.43534265296188</v>
+        <v>96.43534265296199</v>
       </c>
       <c r="R12" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S12" t="n">
-        <v>14.03256171437924</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T12" t="n">
-        <v>3.045082459389497</v>
+        <v>3.045082459389501</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701039</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6333623767188417</v>
+        <v>0.6333623767188424</v>
       </c>
       <c r="H13" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009349</v>
       </c>
       <c r="I13" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J13" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402216</v>
       </c>
       <c r="K13" t="n">
-        <v>73.58519249515268</v>
+        <v>73.58519249515277</v>
       </c>
       <c r="L13" t="n">
-        <v>94.16371189872672</v>
+        <v>94.16371189872683</v>
       </c>
       <c r="M13" t="n">
-        <v>99.2824314705726</v>
+        <v>99.28243147057272</v>
       </c>
       <c r="N13" t="n">
-        <v>96.92171715734791</v>
+        <v>96.92171715734801</v>
       </c>
       <c r="O13" t="n">
-        <v>89.52289302931413</v>
+        <v>89.52289302931423</v>
       </c>
       <c r="P13" t="n">
-        <v>76.6023005442497</v>
+        <v>76.60230054424979</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.03546229052047</v>
+        <v>53.03546229052053</v>
       </c>
       <c r="R13" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S13" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T13" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H14" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I14" t="n">
-        <v>54.43508030098282</v>
+        <v>54.43508030098288</v>
       </c>
       <c r="J14" t="n">
-        <v>119.839424076144</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K14" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L14" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519903</v>
       </c>
       <c r="M14" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N14" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O14" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252572</v>
       </c>
       <c r="P14" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110943</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R14" t="n">
-        <v>88.69483465291775</v>
+        <v>88.69483465291785</v>
       </c>
       <c r="S14" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T14" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7554720356265567</v>
+        <v>0.7554720356265576</v>
       </c>
       <c r="H15" t="n">
-        <v>7.296269396709115</v>
+        <v>7.296269396709123</v>
       </c>
       <c r="I15" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J15" t="n">
-        <v>71.37553999750729</v>
+        <v>71.37553999750737</v>
       </c>
       <c r="K15" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L15" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723366</v>
       </c>
       <c r="M15" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N15" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658739</v>
       </c>
       <c r="O15" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P15" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.43534265296188</v>
+        <v>96.43534265296199</v>
       </c>
       <c r="R15" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S15" t="n">
-        <v>14.03256171437924</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T15" t="n">
-        <v>3.045082459389497</v>
+        <v>3.045082459389501</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6333623767188417</v>
+        <v>0.6333623767188424</v>
       </c>
       <c r="H16" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009349</v>
       </c>
       <c r="I16" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J16" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402216</v>
       </c>
       <c r="K16" t="n">
-        <v>73.58519249515268</v>
+        <v>73.58519249515277</v>
       </c>
       <c r="L16" t="n">
-        <v>94.16371189872672</v>
+        <v>94.16371189872683</v>
       </c>
       <c r="M16" t="n">
-        <v>99.2824314705726</v>
+        <v>99.28243147057272</v>
       </c>
       <c r="N16" t="n">
-        <v>96.92171715734791</v>
+        <v>96.92171715734801</v>
       </c>
       <c r="O16" t="n">
-        <v>89.52289302931413</v>
+        <v>89.52289302931423</v>
       </c>
       <c r="P16" t="n">
-        <v>76.6023005442497</v>
+        <v>76.60230054424979</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.03546229052047</v>
+        <v>53.03546229052053</v>
       </c>
       <c r="R16" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S16" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T16" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H17" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I17" t="n">
-        <v>54.43508030098282</v>
+        <v>54.43508030098288</v>
       </c>
       <c r="J17" t="n">
-        <v>119.839424076144</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K17" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L17" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519903</v>
       </c>
       <c r="M17" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N17" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O17" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252572</v>
       </c>
       <c r="P17" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110943</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R17" t="n">
-        <v>88.69483465291775</v>
+        <v>88.69483465291785</v>
       </c>
       <c r="S17" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T17" t="n">
-        <v>6.180910810389785</v>
+        <v>6.180910810389792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7554720356265567</v>
+        <v>0.7554720356265576</v>
       </c>
       <c r="H18" t="n">
-        <v>7.296269396709115</v>
+        <v>7.296269396709123</v>
       </c>
       <c r="I18" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J18" t="n">
-        <v>71.37553999750729</v>
+        <v>71.37553999750737</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L18" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723366</v>
       </c>
       <c r="M18" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N18" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658739</v>
       </c>
       <c r="O18" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P18" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.43534265296188</v>
+        <v>96.43534265296199</v>
       </c>
       <c r="R18" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S18" t="n">
-        <v>14.03256171437924</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T18" t="n">
-        <v>3.045082459389497</v>
+        <v>3.045082459389501</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701039</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6333623767188417</v>
+        <v>0.6333623767188424</v>
       </c>
       <c r="H19" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009349</v>
       </c>
       <c r="I19" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J19" t="n">
-        <v>44.77872003402211</v>
+        <v>44.77872003402216</v>
       </c>
       <c r="K19" t="n">
-        <v>73.58519249515268</v>
+        <v>73.58519249515277</v>
       </c>
       <c r="L19" t="n">
-        <v>94.16371189872672</v>
+        <v>94.16371189872683</v>
       </c>
       <c r="M19" t="n">
-        <v>99.2824314705726</v>
+        <v>99.28243147057272</v>
       </c>
       <c r="N19" t="n">
-        <v>96.92171715734791</v>
+        <v>96.92171715734801</v>
       </c>
       <c r="O19" t="n">
-        <v>89.52289302931413</v>
+        <v>89.52289302931423</v>
       </c>
       <c r="P19" t="n">
-        <v>76.6023005442497</v>
+        <v>76.60230054424979</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.03546229052047</v>
+        <v>53.03546229052053</v>
       </c>
       <c r="R19" t="n">
-        <v>28.47827559319446</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S19" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T19" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011872</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H20" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I20" t="n">
-        <v>54.4350803009828</v>
+        <v>54.43508030098289</v>
       </c>
       <c r="J20" t="n">
-        <v>119.8394240761439</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K20" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L20" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519903</v>
       </c>
       <c r="M20" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399445</v>
       </c>
       <c r="N20" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O20" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252572</v>
       </c>
       <c r="P20" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110943</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R20" t="n">
-        <v>88.69483465291773</v>
+        <v>88.69483465291786</v>
       </c>
       <c r="S20" t="n">
-        <v>32.17532954694627</v>
+        <v>32.17532954694631</v>
       </c>
       <c r="T20" t="n">
-        <v>6.180910810389784</v>
+        <v>6.180910810389793</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7554720356265566</v>
+        <v>0.7554720356265577</v>
       </c>
       <c r="H21" t="n">
-        <v>7.296269396709114</v>
+        <v>7.296269396709125</v>
       </c>
       <c r="I21" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766877</v>
       </c>
       <c r="J21" t="n">
-        <v>71.37553999750727</v>
+        <v>71.37553999750737</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L21" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723366</v>
       </c>
       <c r="M21" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637993</v>
       </c>
       <c r="N21" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658739</v>
       </c>
       <c r="O21" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238328</v>
       </c>
       <c r="P21" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662679</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.43534265296186</v>
+        <v>96.43534265296201</v>
       </c>
       <c r="R21" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565594</v>
       </c>
       <c r="S21" t="n">
-        <v>14.03256171437923</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T21" t="n">
-        <v>3.045082459389497</v>
+        <v>3.045082459389501</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.0497021076070104</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6333623767188415</v>
+        <v>0.6333623767188425</v>
       </c>
       <c r="H22" t="n">
-        <v>5.631167313009342</v>
+        <v>5.63116731300935</v>
       </c>
       <c r="I22" t="n">
-        <v>19.04693401987208</v>
+        <v>19.04693401987211</v>
       </c>
       <c r="J22" t="n">
-        <v>44.7787200340221</v>
+        <v>44.77872003402216</v>
       </c>
       <c r="K22" t="n">
-        <v>73.58519249515267</v>
+        <v>73.58519249515278</v>
       </c>
       <c r="L22" t="n">
-        <v>94.1637118987267</v>
+        <v>94.16371189872685</v>
       </c>
       <c r="M22" t="n">
-        <v>99.28243147057259</v>
+        <v>99.28243147057273</v>
       </c>
       <c r="N22" t="n">
-        <v>96.92171715734789</v>
+        <v>96.92171715734803</v>
       </c>
       <c r="O22" t="n">
-        <v>89.52289302931412</v>
+        <v>89.52289302931425</v>
       </c>
       <c r="P22" t="n">
-        <v>76.60230054424969</v>
+        <v>76.6023005442498</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.03546229052046</v>
+        <v>53.03546229052053</v>
       </c>
       <c r="R22" t="n">
-        <v>28.47827559319445</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T22" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525963</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>328.3201928929414</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.554791632671</v>
+        <v>246.5547916326716</v>
       </c>
       <c r="R44" t="n">
         <v>143.4190823571508</v>
@@ -34447,7 +34447,7 @@
         <v>42.0592780726173</v>
       </c>
       <c r="J45" t="n">
-        <v>115.4138737531528</v>
+        <v>115.4138737531527</v>
       </c>
       <c r="K45" t="n">
         <v>197.2606930954842</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432586</v>
+        <v>3.799631206432579</v>
       </c>
       <c r="L2" t="n">
         <v>10.77088587362579</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907282</v>
+        <v>17.18295210907281</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O2" t="n">
-        <v>15.0141623058707</v>
+        <v>15.01416230587069</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855995</v>
+        <v>7.151197092855988</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.473289392418824</v>
       </c>
       <c r="L3" t="n">
-        <v>9.270525416508193</v>
+        <v>13.61833703813649</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030011</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="O3" t="n">
         <v>16.42269341674558</v>
       </c>
       <c r="P3" t="n">
-        <v>10.00730248430402</v>
+        <v>1.186201470256872</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309855</v>
+        <v>0.6010854422309819</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.60114610981752</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L5" t="n">
         <v>14.24641283816825</v>
       </c>
       <c r="M5" t="n">
-        <v>21.05014551947926</v>
+        <v>21.05014551947927</v>
       </c>
       <c r="N5" t="n">
-        <v>22.14807591311316</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O5" t="n">
         <v>18.72493140015997</v>
       </c>
       <c r="P5" t="n">
-        <v>10.31825266315468</v>
+        <v>10.31825266315469</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.376113496426189</v>
+        <v>6.376113496426193</v>
       </c>
       <c r="L6" t="n">
-        <v>16.17691886905385</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M6" t="n">
         <v>22.05496501936139</v>
       </c>
       <c r="N6" t="n">
-        <v>16.99711954026112</v>
+        <v>16.99711954026111</v>
       </c>
       <c r="O6" t="n">
         <v>19.22635746243337</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2924492011629098</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8431658598427916</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N7" t="n">
-        <v>2.112862674119196</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.787925067696136</v>
+        <v>6.787925067696143</v>
       </c>
       <c r="L8" t="n">
         <v>14.47812865154192</v>
       </c>
       <c r="M8" t="n">
-        <v>21.30797400871487</v>
+        <v>21.30797400871488</v>
       </c>
       <c r="N8" t="n">
-        <v>22.41007633685599</v>
+        <v>22.410076336856</v>
       </c>
       <c r="O8" t="n">
-        <v>18.97233097084299</v>
+        <v>18.972330970843</v>
       </c>
       <c r="P8" t="n">
-        <v>10.52940247294129</v>
+        <v>10.5294024729413</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.502976110201111</v>
+        <v>6.502976110201114</v>
       </c>
       <c r="L9" t="n">
-        <v>16.34750130909317</v>
+        <v>16.34750130909318</v>
       </c>
       <c r="M9" t="n">
-        <v>22.25402668103337</v>
+        <v>22.25402668103338</v>
       </c>
       <c r="N9" t="n">
-        <v>17.56054206765436</v>
+        <v>17.46025661497476</v>
       </c>
       <c r="O9" t="n">
-        <v>19.41327970513234</v>
+        <v>19.41327970513235</v>
       </c>
       <c r="P9" t="n">
         <v>12.40751163547888</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.1002854526796142</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3903723299035775</v>
+        <v>0.3903723299035846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9464120692640563</v>
+        <v>0.9464120692640599</v>
       </c>
       <c r="N10" t="n">
-        <v>2.213653919447047</v>
+        <v>2.213653919447051</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J11" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K11" t="n">
-        <v>143.8436307293757</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L11" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M11" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N11" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445664</v>
       </c>
       <c r="O11" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692331</v>
       </c>
       <c r="P11" t="n">
-        <v>165.4680878008627</v>
+        <v>165.468087800863</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R11" t="n">
-        <v>53.66218475812128</v>
+        <v>53.66218475812138</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.838382897668733</v>
+        <v>9.838382897668762</v>
       </c>
       <c r="J12" t="n">
-        <v>50.76442566417396</v>
+        <v>50.76442566417404</v>
       </c>
       <c r="K12" t="n">
-        <v>99.59293255115324</v>
+        <v>99.59293255115338</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M12" t="n">
-        <v>168.3226032514711</v>
+        <v>168.3226032514713</v>
       </c>
       <c r="N12" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O12" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P12" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.68830436398338</v>
+        <v>73.68830436398349</v>
       </c>
       <c r="R12" t="n">
-        <v>23.23261629151174</v>
+        <v>23.23261629151179</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.14196405012024</v>
+        <v>24.14196405012029</v>
       </c>
       <c r="K13" t="n">
-        <v>52.62053804244069</v>
+        <v>52.62053804244077</v>
       </c>
       <c r="L13" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302562</v>
       </c>
       <c r="M13" t="n">
-        <v>76.70699157908679</v>
+        <v>76.7069915790869</v>
       </c>
       <c r="N13" t="n">
-        <v>76.17281618174752</v>
+        <v>76.17281618174762</v>
       </c>
       <c r="O13" t="n">
-        <v>67.02370553088969</v>
+        <v>67.02370553088979</v>
       </c>
       <c r="P13" t="n">
-        <v>54.22149988626322</v>
+        <v>54.2214998862633</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.41589952573552</v>
+        <v>28.41589952573558</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J14" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K14" t="n">
-        <v>143.8436307293757</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L14" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M14" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N14" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445664</v>
       </c>
       <c r="O14" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692331</v>
       </c>
       <c r="P14" t="n">
-        <v>165.4680878008627</v>
+        <v>165.468087800863</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R14" t="n">
-        <v>53.66218475812128</v>
+        <v>53.66218475812138</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.838382897668733</v>
+        <v>9.838382897668762</v>
       </c>
       <c r="J15" t="n">
-        <v>50.76442566417396</v>
+        <v>50.76442566417404</v>
       </c>
       <c r="K15" t="n">
-        <v>99.59293255115324</v>
+        <v>99.59293255115338</v>
       </c>
       <c r="L15" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M15" t="n">
-        <v>168.3226032514711</v>
+        <v>168.3226032514713</v>
       </c>
       <c r="N15" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O15" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P15" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.68830436398338</v>
+        <v>73.68830436398349</v>
       </c>
       <c r="R15" t="n">
-        <v>23.23261629151174</v>
+        <v>23.23261629151179</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.14196405012024</v>
+        <v>24.14196405012029</v>
       </c>
       <c r="K16" t="n">
-        <v>52.62053804244069</v>
+        <v>52.62053804244077</v>
       </c>
       <c r="L16" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302562</v>
       </c>
       <c r="M16" t="n">
-        <v>76.70699157908679</v>
+        <v>76.7069915790869</v>
       </c>
       <c r="N16" t="n">
-        <v>76.17281618174752</v>
+        <v>76.17281618174762</v>
       </c>
       <c r="O16" t="n">
-        <v>67.02370553088969</v>
+        <v>67.02370553088979</v>
       </c>
       <c r="P16" t="n">
-        <v>54.22149988626322</v>
+        <v>54.2214998862633</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41589952573552</v>
+        <v>28.41589952573558</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.88717775701932</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J17" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K17" t="n">
-        <v>143.8436307293757</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L17" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M17" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N17" t="n">
-        <v>214.6622088445661</v>
+        <v>214.6622088445664</v>
       </c>
       <c r="O17" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692331</v>
       </c>
       <c r="P17" t="n">
-        <v>165.4680878008627</v>
+        <v>165.468087800863</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R17" t="n">
-        <v>53.66218475812128</v>
+        <v>53.66218475812138</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.838382897668733</v>
+        <v>9.838382897668762</v>
       </c>
       <c r="J18" t="n">
-        <v>50.76442566417396</v>
+        <v>50.76442566417404</v>
       </c>
       <c r="K18" t="n">
-        <v>99.59293255115324</v>
+        <v>99.59293255115338</v>
       </c>
       <c r="L18" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M18" t="n">
-        <v>168.3226032514711</v>
+        <v>168.3226032514713</v>
       </c>
       <c r="N18" t="n">
-        <v>175.142657052332</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O18" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P18" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.68830436398338</v>
+        <v>73.68830436398349</v>
       </c>
       <c r="R18" t="n">
-        <v>23.23261629151174</v>
+        <v>23.23261629151179</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.14196405012024</v>
+        <v>24.14196405012029</v>
       </c>
       <c r="K19" t="n">
-        <v>52.62053804244069</v>
+        <v>52.62053804244077</v>
       </c>
       <c r="L19" t="n">
-        <v>72.2449520030255</v>
+        <v>72.24495200302562</v>
       </c>
       <c r="M19" t="n">
-        <v>76.70699157908679</v>
+        <v>76.7069915790869</v>
       </c>
       <c r="N19" t="n">
-        <v>76.17281618174752</v>
+        <v>76.17281618174762</v>
       </c>
       <c r="O19" t="n">
-        <v>67.02370553088969</v>
+        <v>67.02370553088979</v>
       </c>
       <c r="P19" t="n">
-        <v>54.22149988626322</v>
+        <v>54.2214998862633</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.41589952573552</v>
+        <v>28.41589952573558</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>19.8871777570193</v>
+        <v>19.88717775701939</v>
       </c>
       <c r="J20" t="n">
-        <v>90.41946459055742</v>
+        <v>90.4194645905576</v>
       </c>
       <c r="K20" t="n">
-        <v>143.8436307293756</v>
+        <v>143.8436307293759</v>
       </c>
       <c r="L20" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193674</v>
       </c>
       <c r="M20" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N20" t="n">
-        <v>214.662208844566</v>
+        <v>214.6622088445664</v>
       </c>
       <c r="O20" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692331</v>
       </c>
       <c r="P20" t="n">
-        <v>165.4680878008627</v>
+        <v>165.468087800863</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R20" t="n">
-        <v>53.66218475812126</v>
+        <v>53.66218475812139</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.838382897668726</v>
+        <v>9.838382897668765</v>
       </c>
       <c r="J21" t="n">
-        <v>50.76442566417394</v>
+        <v>50.76442566417404</v>
       </c>
       <c r="K21" t="n">
-        <v>99.59293255115323</v>
+        <v>99.5929325511534</v>
       </c>
       <c r="L21" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M21" t="n">
-        <v>168.322603251471</v>
+        <v>168.3226032514713</v>
       </c>
       <c r="N21" t="n">
-        <v>175.1426570523319</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O21" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P21" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.68830436398336</v>
+        <v>73.68830436398351</v>
       </c>
       <c r="R21" t="n">
-        <v>23.23261629151173</v>
+        <v>23.2326162915118</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.14196405012023</v>
+        <v>24.1419640501203</v>
       </c>
       <c r="K22" t="n">
-        <v>52.62053804244067</v>
+        <v>52.62053804244078</v>
       </c>
       <c r="L22" t="n">
-        <v>72.24495200302547</v>
+        <v>72.24495200302562</v>
       </c>
       <c r="M22" t="n">
-        <v>76.70699157908678</v>
+        <v>76.70699157908692</v>
       </c>
       <c r="N22" t="n">
-        <v>76.17281618174749</v>
+        <v>76.17281618174763</v>
       </c>
       <c r="O22" t="n">
-        <v>67.02370553088967</v>
+        <v>67.0237055308898</v>
       </c>
       <c r="P22" t="n">
-        <v>54.2214998862632</v>
+        <v>54.22149988626332</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.41589952573551</v>
+        <v>28.41589952573559</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>290.7448310827101</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.4301170280729</v>
+        <v>210.4301170280735</v>
       </c>
       <c r="R44" t="n">
         <v>108.3864324623543</v>
@@ -38095,7 +38095,7 @@
         <v>25.8868913226173</v>
       </c>
       <c r="J45" t="n">
-        <v>94.80275941981945</v>
+        <v>94.80275941981934</v>
       </c>
       <c r="K45" t="n">
         <v>174.8614592621509</v>
